--- a/Suivi_demandes_AUTOMATISATION.xlsx
+++ b/Suivi_demandes_AUTOMATISATION.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cov.dom\ComMkg\Geomarketing\Geomarketing_New\ETUDES_DIVERSES\01_ETUDES_RECURRENTES\01. FICHE_DRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asihyurek\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F95E1CE-7E27-4231-B6B0-498896C63116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAE8996-C45F-463C-A720-D5B3AD418693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suivi_commandes" sheetId="1" r:id="rId1"/>
     <sheet name="KPI" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Suivi_commandes!$A$1:$R$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Suivi_commandes!$A$1:$S$87</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -35,8 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="393">
   <si>
     <t>Covage Infra</t>
   </si>
@@ -1221,6 +1219,9 @@
   </si>
   <si>
     <t>CMD_X_00004373</t>
+  </si>
+  <si>
+    <t>TIRAGE TOTAL</t>
   </si>
 </sst>
 </file>
@@ -1756,24 +1757,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -1809,6 +1792,24 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1836,7 +1837,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Suivi_demandes.xlsx]KPI!Tableau croisé dynamique5</c:name>
+    <c:name>[Suivi_demandes_AUTOMATISATION.xlsx]KPI!Tableau croisé dynamique5</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -2926,7 +2927,7 @@
             <c:numRef>
               <c:f>KPI!$B$19:$B$37</c:f>
               <c:numCache>
-                <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
@@ -3073,7 +3074,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3221,7 +3222,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Suivi_demandes.xlsx]KPI!Tableau croisé dynamique6</c:name>
+    <c:name>[Suivi_demandes_AUTOMATISATION.xlsx]KPI!Tableau croisé dynamique6</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -3384,7 +3385,7 @@
             <c:numRef>
               <c:f>KPI!$B$46:$B$54</c:f>
               <c:numCache>
-                <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -3495,7 +3496,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3643,7 +3644,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Suivi_demandes.xlsx]KPI!Tableau croisé dynamique1</c:name>
+    <c:name>[Suivi_demandes_AUTOMATISATION.xlsx]KPI!Tableau croisé dynamique1</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -3928,7 +3929,7 @@
             <c:numRef>
               <c:f>KPI!$B$65:$B$96</c:f>
               <c:numCache>
-                <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>29</c:v>
@@ -4117,7 +4118,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5996,7 +5997,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pauline Solari" refreshedDate="45747.591096875003" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="125" xr:uid="{245AA5F4-AC4B-479C-A222-0C63ECE9FDD5}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:R1048576" sheet="Suivi_commandes"/>
+    <worksheetSource ref="A1:S1048576" sheet="Suivi_commandes"/>
   </cacheSource>
   <cacheFields count="21">
     <cacheField name="DATE RECEPTION" numFmtId="0">
@@ -6225,7 +6226,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pauline Solari" refreshedDate="45747.703811805557" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="119" xr:uid="{4DB4DB4E-05CA-46B7-AA04-16067E4AEE1A}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:S120" sheet="Suivi_commandes"/>
+    <worksheetSource ref="A1:T120" sheet="Suivi_commandes"/>
   </cacheSource>
   <cacheFields count="22">
     <cacheField name="DATE RECEPTION" numFmtId="14">
@@ -11411,6 +11412,685 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97901024-77F3-42C7-9755-582F56689B25}" name="Tableau croisé dynamique10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="mois">
+  <location ref="F2:H12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="21">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="62">
+        <item x="7"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="60"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0" avgSubtotal="1"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="20"/>
+    <field x="18"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Somme coûts globaux" fld="7" baseField="20" baseItem="1"/>
+    <dataField name="Nombre de COMMANDE" fld="12" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="33">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="18" count="1">
+            <x v="12"/>
+          </reference>
+          <reference field="20" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="20" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="18" count="3">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+          <reference field="20" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea field="20" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DA61873-C684-4543-88C2-245C3B8392C5}" name="Tableau croisé dynamique9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="mois">
+  <location ref="A2:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="21">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="62">
+        <item x="7"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="60"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0" avgSubtotal="1"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="20"/>
+    <field x="18"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Coût global moyen" fld="7" subtotal="average" baseField="18" baseItem="1" numFmtId="164"/>
+    <dataField name="Nombre de COMMANDE" fld="12" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="39">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="18" count="1">
+            <x v="12"/>
+          </reference>
+          <reference field="20" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="20" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="18" count="3">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+          <reference field="20" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea field="20" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D4C9D01-EF21-4D84-8C3F-30F4BB27D2FA}" name="Tableau croisé dynamique6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A45:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="21">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="62">
+        <item x="7"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="60"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="20"/>
+    <field x="18"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Nombre de COMMANDE" fld="12" subtotal="count" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="41">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3248A5F0-6955-43A2-B948-329E2B2CD6B8}" name="Tableau croisé dynamique5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A18:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
@@ -11638,10 +12318,10 @@
     <dataField name="Nombre de COMMANDE" fld="12" subtotal="count" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="31">
+    <format dxfId="43">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -11668,7 +12348,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63DE385C-041D-43B7-89AC-2138797BB0A9}" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A64:B96" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
@@ -11919,10 +12599,10 @@
     <dataField name="Nombre de COMMANDE" fld="12" subtotal="count" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="33">
+    <format dxfId="45">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -11949,7 +12629,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67ECA262-95FF-461A-898E-7290796889B1}" name="Tableau croisé dynamique3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption=" ">
   <location ref="A107:B115" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
@@ -12114,674 +12794,6 @@
     <dataField name="Moyenne de DELAI TRAITEMENT" fld="14" subtotal="average" baseField="21" baseItem="1" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="35">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97901024-77F3-42C7-9755-582F56689B25}" name="Tableau croisé dynamique10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="mois">
-  <location ref="F2:H12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="21">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="62">
-        <item x="7"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="19"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="20"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="60"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0" avgSubtotal="1"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="20"/>
-    <field x="18"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Somme coûts globaux" fld="7" baseField="20" baseItem="1"/>
-    <dataField name="Nombre de COMMANDE" fld="12" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="39">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="18" count="1">
-            <x v="12"/>
-          </reference>
-          <reference field="20" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="38">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="20" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="37">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="18" count="3">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-          </reference>
-          <reference field="20" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="36">
-      <pivotArea field="20" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DA61873-C684-4543-88C2-245C3B8392C5}" name="Tableau croisé dynamique9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="mois">
-  <location ref="A2:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="21">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="62">
-        <item x="7"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="19"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="20"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="60"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0" avgSubtotal="1"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item sd="0" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="20"/>
-    <field x="18"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Coût global moyen" fld="7" subtotal="average" baseField="18" baseItem="1" numFmtId="164"/>
-    <dataField name="Nombre de COMMANDE" fld="12" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="45">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="18" count="1">
-            <x v="12"/>
-          </reference>
-          <reference field="20" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="44">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="20" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="43">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="18" count="3">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-          </reference>
-          <reference field="20" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="42">
-      <pivotArea field="20" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="41">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="40">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D4C9D01-EF21-4D84-8C3F-30F4BB27D2FA}" name="Tableau croisé dynamique6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A45:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="21">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="62">
-        <item x="7"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="19"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="20"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="60"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item sd="0" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="20"/>
-    <field x="18"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Nombre de COMMANDE" fld="12" subtotal="count" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="2">
     <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
@@ -12789,17 +12801,6 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -13075,11 +13076,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S126"/>
+  <dimension ref="A1:T126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M121" sqref="M121"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -13092,16 +13093,17 @@
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" style="24" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="3"/>
+    <col min="9" max="9" width="30.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="24" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="15" t="s">
         <v>205</v>
       </c>
@@ -13129,38 +13131,41 @@
       <c r="I1" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>45632</v>
       </c>
@@ -13179,27 +13184,28 @@
       <c r="I2" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="6">
+      <c r="O2" s="6">
         <v>45644</v>
       </c>
-      <c r="O2" s="2">
-        <f t="shared" ref="O2:O33" si="0">N2-A2</f>
+      <c r="P2" s="2">
+        <f t="shared" ref="P2:P33" si="0">O2-A2</f>
         <v>12</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>45629</v>
       </c>
@@ -13218,27 +13224,28 @@
       <c r="I3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="8" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="6">
         <v>45643</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>45621</v>
       </c>
@@ -13257,27 +13264,28 @@
       <c r="I4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="8" t="s">
+      <c r="L4" s="4"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <v>45632</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>45629</v>
       </c>
@@ -13296,27 +13304,28 @@
       <c r="I5" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="8" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6">
         <v>45644</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>45631</v>
       </c>
@@ -13335,27 +13344,28 @@
       <c r="I6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="8" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <v>45650</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>45631</v>
       </c>
@@ -13374,27 +13384,28 @@
       <c r="I7" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="8" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <v>45646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>45631</v>
       </c>
@@ -13413,27 +13424,28 @@
       <c r="I8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="8" t="s">
+      <c r="L8" s="4"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8" s="6">
         <v>45646</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>45637</v>
       </c>
@@ -13452,27 +13464,28 @@
       <c r="I9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="8" t="s">
+      <c r="L9" s="4"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="6">
+      <c r="O9" s="6">
         <v>45643</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>45629</v>
       </c>
@@ -13491,27 +13504,28 @@
       <c r="I10" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="8" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O10" s="6">
         <v>45653</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>45638</v>
       </c>
@@ -13530,29 +13544,30 @@
       <c r="I11" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4">
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4">
         <v>164.35624999999999</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="26"/>
+      <c r="N11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="6">
         <v>45671</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>45638</v>
       </c>
@@ -13571,27 +13586,28 @@
       <c r="I12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="8" t="s">
+      <c r="L12" s="4"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="6">
+      <c r="O12" s="6">
         <v>45645</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>45639</v>
       </c>
@@ -13610,27 +13626,28 @@
       <c r="I13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="8" t="s">
+      <c r="L13" s="4"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="6">
+      <c r="O13" s="6">
         <v>45645</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>45616</v>
       </c>
@@ -13649,27 +13666,28 @@
       <c r="I14" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="8" t="s">
+      <c r="L14" s="4"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="6">
         <v>45639</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>45616</v>
       </c>
@@ -13688,27 +13706,28 @@
       <c r="I15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="8" t="s">
+      <c r="L15" s="4"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15" s="6">
         <v>45639</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P15" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>45642</v>
       </c>
@@ -13727,27 +13746,28 @@
       <c r="I16" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="8" t="s">
+      <c r="L16" s="4"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="N16" s="6">
+      <c r="O16" s="6">
         <v>45656</v>
       </c>
-      <c r="O16" s="2">
+      <c r="P16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>45650</v>
       </c>
@@ -13772,34 +13792,35 @@
       <c r="I17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3"/>
+      <c r="K17" s="4">
         <v>5580</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>47.103448275862071</v>
       </c>
-      <c r="L17" s="26">
-        <f t="shared" ref="L17:L45" si="1">(H17-J17)/4000</f>
+      <c r="M17" s="26">
+        <f t="shared" ref="M17:M45" si="1">(H17-K17)/4000</f>
         <v>0.40250000000000002</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="N17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="6">
+      <c r="O17" s="6">
         <v>45666</v>
       </c>
-      <c r="O17" s="2">
+      <c r="P17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>45644</v>
       </c>
@@ -13814,30 +13835,31 @@
       <c r="I18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="26">
+      <c r="L18" s="4"/>
+      <c r="M18" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="N18" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N18" s="6">
+      <c r="O18" s="6">
         <v>45666</v>
       </c>
-      <c r="O18" s="2">
+      <c r="P18" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>45649</v>
       </c>
@@ -13862,34 +13884,35 @@
       <c r="I19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3"/>
+      <c r="K19" s="4">
         <v>5580</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>169</v>
       </c>
-      <c r="L19" s="26">
+      <c r="M19" s="26">
         <f t="shared" si="1"/>
         <v>4.83</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="N19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N19" s="6">
+      <c r="O19" s="6">
         <v>45656</v>
       </c>
-      <c r="O19" s="2">
+      <c r="P19" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>45646</v>
       </c>
@@ -13914,34 +13937,35 @@
       <c r="I20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3"/>
+      <c r="K20" s="4">
         <v>4500</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>100.93373913043477</v>
       </c>
-      <c r="L20" s="26">
+      <c r="M20" s="26">
         <f t="shared" si="1"/>
         <v>1.8668449999999999</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="N20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="6">
+      <c r="O20" s="6">
         <v>45664</v>
       </c>
-      <c r="O20" s="2">
+      <c r="P20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>45652</v>
       </c>
@@ -13964,34 +13988,35 @@
       <c r="I21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="9"/>
+      <c r="K21" s="4">
         <v>2880</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>59.424999999999997</v>
       </c>
-      <c r="L21" s="26">
+      <c r="M21" s="26">
         <f t="shared" si="1"/>
         <v>0.46850000000000003</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="N21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>45672</v>
       </c>
-      <c r="O21" s="2">
+      <c r="P21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>45652</v>
       </c>
@@ -14014,34 +14039,35 @@
       <c r="I22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="9"/>
+      <c r="K22" s="4">
         <v>3240</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>177.6875</v>
       </c>
-      <c r="L22" s="26">
+      <c r="M22" s="26">
         <f t="shared" si="1"/>
         <v>2.8337500000000002</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="N22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>45667</v>
       </c>
-      <c r="O22" s="2">
+      <c r="P22" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>45652</v>
       </c>
@@ -14064,34 +14090,35 @@
       <c r="I23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="9"/>
+      <c r="K23" s="4">
         <v>5760</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="4">
         <v>259.83249999999998</v>
       </c>
-      <c r="L23" s="26">
+      <c r="M23" s="26">
         <f t="shared" si="1"/>
         <v>8.9532999999999987</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="N23" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>45671</v>
       </c>
-      <c r="O23" s="2">
+      <c r="P23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="R23" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>45656</v>
       </c>
@@ -14116,34 +14143,35 @@
       <c r="I24" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="9"/>
+      <c r="K24" s="4">
         <v>2952</v>
       </c>
-      <c r="K24" s="4">
+      <c r="L24" s="4">
         <v>181.88361111111112</v>
       </c>
-      <c r="L24" s="26">
+      <c r="M24" s="26">
         <f t="shared" si="1"/>
         <v>2.62575</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="N24" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>45672</v>
       </c>
-      <c r="O24" s="2">
+      <c r="P24" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>45646</v>
       </c>
@@ -14168,34 +14196,35 @@
       <c r="I25" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="9"/>
+      <c r="K25" s="4">
         <v>5400</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <v>66</v>
       </c>
-      <c r="L25" s="26">
+      <c r="M25" s="26">
         <f t="shared" si="1"/>
         <v>1.079</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="N25" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N25" s="6">
+      <c r="O25" s="6">
         <v>45657</v>
       </c>
-      <c r="O25" s="2">
+      <c r="P25" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="R25" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
         <v>45656</v>
       </c>
@@ -14218,34 +14247,35 @@
       <c r="I26" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="9"/>
+      <c r="K26" s="4">
         <v>16080</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L26" s="4">
         <v>55.335250000000002</v>
       </c>
-      <c r="L26" s="26">
+      <c r="M26" s="26">
         <f t="shared" si="1"/>
         <v>1.3534674999999998</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="N26" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="N26" s="6">
+      <c r="O26" s="6">
         <v>45674</v>
       </c>
-      <c r="O26" s="2">
+      <c r="P26" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:18">
       <c r="A27" s="1">
         <v>45646</v>
       </c>
@@ -14268,34 +14298,35 @@
       <c r="I27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="1"/>
+      <c r="K27" s="4">
         <v>7200</v>
       </c>
-      <c r="K27" s="4">
+      <c r="L27" s="4">
         <v>161.28375</v>
       </c>
-      <c r="L27" s="26">
+      <c r="M27" s="26">
         <f t="shared" si="1"/>
         <v>6.2641875000000002</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="N27" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>45664</v>
       </c>
-      <c r="O27" s="2">
+      <c r="P27" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:18">
       <c r="A28" s="1">
         <v>45660</v>
       </c>
@@ -14320,34 +14351,35 @@
       <c r="I28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="1"/>
+      <c r="K28" s="4">
         <v>5580</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
         <v>71.496344829999998</v>
       </c>
-      <c r="L28" s="26">
+      <c r="M28" s="26">
         <f t="shared" si="1"/>
         <v>1.2867424999999999</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="N28" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <v>45677</v>
       </c>
-      <c r="O28" s="2">
+      <c r="P28" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18">
       <c r="A29" s="1">
         <v>45663</v>
       </c>
@@ -14372,34 +14404,35 @@
       <c r="I29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="1"/>
+      <c r="K29" s="4">
         <v>3960</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
         <v>130</v>
       </c>
-      <c r="L29" s="26">
+      <c r="M29" s="26">
         <f t="shared" si="1"/>
         <v>2.3647499999999999</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="N29" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="N29" s="6">
+      <c r="O29" s="6">
         <v>45671</v>
       </c>
-      <c r="O29" s="2">
+      <c r="P29" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:18">
       <c r="A30" s="1">
         <v>45663</v>
       </c>
@@ -14422,34 +14455,35 @@
       <c r="I30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="1"/>
+      <c r="K30" s="4">
         <v>6120</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>147</v>
       </c>
-      <c r="L30" s="26">
+      <c r="M30" s="26">
         <f t="shared" si="1"/>
         <v>4.4660000000000002</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="N30" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="N30" s="6">
+      <c r="O30" s="6">
         <v>45678</v>
       </c>
-      <c r="O30" s="2">
+      <c r="P30" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18">
       <c r="A31" s="1">
         <v>45664</v>
       </c>
@@ -14472,34 +14506,35 @@
       <c r="I31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="1"/>
+      <c r="K31" s="4">
         <v>1455</v>
       </c>
-      <c r="K31" s="4">
+      <c r="L31" s="4">
         <v>290</v>
       </c>
-      <c r="L31" s="26">
+      <c r="M31" s="26">
         <f t="shared" si="1"/>
         <v>6.7862499999999999</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="N31" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="N31" s="6">
+      <c r="O31" s="6">
         <v>45671</v>
       </c>
-      <c r="O31" s="2">
+      <c r="P31" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:18">
       <c r="A32" s="1">
         <v>45666</v>
       </c>
@@ -14524,34 +14559,35 @@
       <c r="I32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="1"/>
+      <c r="K32" s="4">
         <v>3240</v>
       </c>
-      <c r="K32" s="4">
+      <c r="L32" s="4">
         <v>82.038750000000007</v>
       </c>
-      <c r="L32" s="26">
+      <c r="M32" s="26">
         <f t="shared" si="1"/>
         <v>0.92077500000000012</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="N32" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="N32" s="6">
+      <c r="O32" s="6">
         <v>45671</v>
       </c>
-      <c r="O32" s="2">
+      <c r="P32" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="R32" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
         <v>45664</v>
       </c>
@@ -14574,34 +14610,35 @@
       <c r="I33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3"/>
+      <c r="K33" s="4">
         <v>1455</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>254</v>
       </c>
-      <c r="L33" s="26">
+      <c r="M33" s="26">
         <f t="shared" si="1"/>
         <v>5.69625</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="N33" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="N33" s="6">
+      <c r="O33" s="6">
         <v>45685</v>
       </c>
-      <c r="O33" s="2">
+      <c r="P33" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
         <v>45664</v>
       </c>
@@ -14626,30 +14663,31 @@
       <c r="I34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J34" s="4"/>
+      <c r="J34" s="3"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="26">
+      <c r="L34" s="4"/>
+      <c r="M34" s="26">
         <f t="shared" si="1"/>
         <v>2.4064800000000002</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="N34" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="N34" s="6">
+      <c r="O34" s="6">
         <v>45679</v>
       </c>
-      <c r="O34" s="2">
-        <f t="shared" ref="O34:O65" si="2">N34-A34</f>
+      <c r="P34" s="2">
+        <f t="shared" ref="P34:P65" si="2">O34-A34</f>
         <v>15</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="R34" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
         <v>45659</v>
       </c>
@@ -14675,34 +14713,35 @@
       <c r="I35" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="3"/>
+      <c r="K35" s="4">
         <v>5580</v>
       </c>
-      <c r="K35" s="4">
+      <c r="L35" s="4">
         <v>100</v>
       </c>
-      <c r="L35" s="26">
+      <c r="M35" s="26">
         <f t="shared" si="1"/>
         <v>2.3494999999999999</v>
       </c>
-      <c r="M35" s="10" t="s">
+      <c r="N35" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="N35" s="6">
+      <c r="O35" s="6">
         <v>45678</v>
       </c>
-      <c r="O35" s="2">
+      <c r="P35" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
         <v>45671</v>
       </c>
@@ -14725,34 +14764,35 @@
       <c r="I36" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="9"/>
+      <c r="K36" s="4">
         <v>6120</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
         <v>42</v>
       </c>
-      <c r="L36" s="26">
+      <c r="M36" s="26">
         <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="N36" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="N36" s="6">
+      <c r="O36" s="6">
         <v>45679</v>
       </c>
-      <c r="O36" s="2">
+      <c r="P36" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="R36" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
         <v>45674</v>
       </c>
@@ -14775,34 +14815,35 @@
       <c r="I37" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="3"/>
+      <c r="K37" s="4">
         <v>9900</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>66.852400000000003</v>
       </c>
-      <c r="L37" s="26">
+      <c r="M37" s="26">
         <f t="shared" si="1"/>
         <v>1.92825</v>
       </c>
-      <c r="M37" s="10" t="s">
+      <c r="N37" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="N37" s="6">
+      <c r="O37" s="6">
         <v>45678</v>
       </c>
-      <c r="O37" s="2">
+      <c r="P37" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
         <v>45659</v>
       </c>
@@ -14828,34 +14869,35 @@
       <c r="I38" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="3"/>
+      <c r="K38" s="4">
         <v>5580</v>
       </c>
-      <c r="K38" s="4">
+      <c r="L38" s="4">
         <v>108.6608966</v>
       </c>
-      <c r="L38" s="26">
+      <c r="M38" s="26">
         <f t="shared" si="1"/>
         <v>2.6339575000000002</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="N38" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="N38" s="6">
+      <c r="O38" s="6">
         <v>45678</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="R38" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
         <v>45673</v>
       </c>
@@ -14883,34 +14925,35 @@
       <c r="I39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="3"/>
+      <c r="K39" s="4">
         <v>3960</v>
       </c>
-      <c r="K39" s="4">
+      <c r="L39" s="4">
         <v>53.8</v>
       </c>
-      <c r="L39" s="26">
+      <c r="M39" s="26">
         <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
-      <c r="M39" s="10" t="s">
+      <c r="N39" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="N39" s="6">
+      <c r="O39" s="6">
         <v>45680</v>
       </c>
-      <c r="O39" s="2">
+      <c r="P39" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
         <v>45673</v>
       </c>
@@ -14936,34 +14979,35 @@
       <c r="I40" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="3"/>
+      <c r="K40" s="4">
         <v>5220</v>
       </c>
-      <c r="K40" s="4">
+      <c r="L40" s="4">
         <v>45.8</v>
       </c>
-      <c r="L40" s="26">
+      <c r="M40" s="26">
         <f t="shared" si="1"/>
         <v>0.35625000000000001</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="N40" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="N40" s="6">
+      <c r="O40" s="6">
         <v>45680</v>
       </c>
-      <c r="O40" s="2">
+      <c r="P40" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="R40" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
         <v>45659</v>
       </c>
@@ -14991,34 +15035,35 @@
       <c r="I41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="3"/>
+      <c r="K41" s="4">
         <v>4380</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <v>157</v>
       </c>
-      <c r="L41" s="26">
+      <c r="M41" s="26">
         <f t="shared" si="1"/>
         <v>2.4335</v>
       </c>
-      <c r="M41" s="10" t="s">
+      <c r="N41" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="N41" s="6">
+      <c r="O41" s="6">
         <v>45680</v>
       </c>
-      <c r="O41" s="2">
+      <c r="P41" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="R41" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
         <v>45679</v>
       </c>
@@ -15043,34 +15088,35 @@
       <c r="I42" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="3"/>
+      <c r="K42" s="4">
         <v>12110</v>
       </c>
-      <c r="K42" s="4">
+      <c r="L42" s="4">
         <v>144</v>
       </c>
-      <c r="L42" s="26">
+      <c r="M42" s="26">
         <f t="shared" si="1"/>
         <v>3.9442499999999998</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="N42" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="N42" s="6">
+      <c r="O42" s="6">
         <v>45680</v>
       </c>
-      <c r="O42" s="2">
+      <c r="P42" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
         <v>45679</v>
       </c>
@@ -15089,31 +15135,32 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="26">
+      <c r="L43" s="3"/>
+      <c r="M43" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="N43" s="1">
+      <c r="O43" s="1">
         <v>45686</v>
       </c>
-      <c r="O43" s="2">
+      <c r="P43" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="R43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
         <v>45681</v>
       </c>
@@ -15134,32 +15181,33 @@
       <c r="I44" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="3"/>
+      <c r="K44" s="4">
         <v>5580</v>
       </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="26">
+      <c r="L44" s="4"/>
+      <c r="M44" s="26">
         <f t="shared" si="1"/>
         <v>-1.395</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="N44" s="6">
+      <c r="O44" s="6">
         <v>45681</v>
       </c>
-      <c r="O44" s="2">
+      <c r="P44" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="R44" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
         <v>45684</v>
       </c>
@@ -15187,34 +15235,35 @@
       <c r="I45" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="3"/>
+      <c r="K45" s="4">
         <v>3600</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>95.6</v>
       </c>
-      <c r="L45" s="26">
+      <c r="M45" s="26">
         <f t="shared" si="1"/>
         <v>1.4922500000000001</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N45" s="6">
+      <c r="O45" s="6">
         <v>45684</v>
       </c>
-      <c r="O45" s="2">
+      <c r="P45" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
         <v>45684</v>
       </c>
@@ -15235,31 +15284,32 @@
       <c r="I46" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="3"/>
+      <c r="K46" s="4">
         <v>1845</v>
       </c>
-      <c r="K46" s="4">
+      <c r="L46" s="4">
         <v>65</v>
       </c>
-      <c r="L46" s="26"/>
-      <c r="M46" s="5" t="s">
+      <c r="M46" s="26"/>
+      <c r="N46" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="N46" s="6">
+      <c r="O46" s="6">
         <v>45686</v>
       </c>
-      <c r="O46" s="2">
+      <c r="P46" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="R46" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:19">
       <c r="A47" s="1">
         <v>45685</v>
       </c>
@@ -15285,37 +15335,38 @@
       <c r="I47" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="9"/>
+      <c r="K47" s="4">
         <v>6120</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>70.7</v>
       </c>
-      <c r="L47" s="26">
-        <f t="shared" ref="L47:L53" si="3">(H47-J47)/4000</f>
+      <c r="M47" s="26">
+        <f t="shared" ref="M47:M53" si="3">(H47-K47)/4000</f>
         <v>1.3887499999999999</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="N47" s="6">
+      <c r="O47" s="6">
         <v>45688</v>
       </c>
-      <c r="O47" s="2">
+      <c r="P47" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:19">
       <c r="A48" s="1">
         <v>45684</v>
       </c>
@@ -15340,34 +15391,35 @@
       <c r="I48" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="3"/>
+      <c r="K48" s="4">
         <v>8280</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <v>45</v>
       </c>
-      <c r="L48" s="26">
+      <c r="M48" s="26">
         <f t="shared" si="3"/>
         <v>0.50775000000000003</v>
       </c>
-      <c r="M48" s="5" t="s">
+      <c r="N48" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="N48" s="6">
+      <c r="O48" s="6">
         <v>45685</v>
       </c>
-      <c r="O48" s="2">
+      <c r="P48" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="R48" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:19">
       <c r="A49" s="1">
         <v>45687</v>
       </c>
@@ -15395,34 +15447,35 @@
       <c r="I49" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="3"/>
+      <c r="K49" s="4">
         <v>5400</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>54</v>
       </c>
-      <c r="L49" s="26">
+      <c r="M49" s="26">
         <f t="shared" si="3"/>
         <v>0.63100000000000001</v>
       </c>
-      <c r="M49" s="5" t="s">
+      <c r="N49" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="N49" s="6">
+      <c r="O49" s="6">
         <v>45687</v>
       </c>
-      <c r="O49" s="2">
+      <c r="P49" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="R49" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:19">
       <c r="A50" s="1">
         <v>45691</v>
       </c>
@@ -15447,34 +15500,35 @@
       <c r="I50" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="3"/>
+      <c r="K50" s="4">
         <v>5880</v>
       </c>
-      <c r="K50" s="4">
+      <c r="L50" s="4">
         <v>40.200000000000003</v>
       </c>
-      <c r="L50" s="26">
+      <c r="M50" s="26">
         <f t="shared" si="3"/>
         <v>0.89100000000000001</v>
       </c>
-      <c r="M50" s="5" t="s">
+      <c r="N50" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N50" s="6">
+      <c r="O50" s="6">
         <v>45693</v>
       </c>
-      <c r="O50" s="2">
+      <c r="P50" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="R50" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:19">
       <c r="A51" s="1">
         <v>45692</v>
       </c>
@@ -15499,34 +15553,35 @@
       <c r="I51" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="3"/>
+      <c r="K51" s="4">
         <v>1200</v>
       </c>
-      <c r="K51" s="4">
+      <c r="L51" s="4">
         <v>65.099999999999994</v>
       </c>
-      <c r="L51" s="26">
+      <c r="M51" s="26">
         <f t="shared" si="3"/>
         <v>1.3274999999999999</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="N51" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N51" s="6">
+      <c r="O51" s="6">
         <v>45693</v>
       </c>
-      <c r="O51" s="2">
+      <c r="P51" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="Q51" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q51" s="3" t="s">
+      <c r="R51" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:19">
       <c r="A52" s="1">
         <v>45692</v>
       </c>
@@ -15551,34 +15606,35 @@
       <c r="I52" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="3"/>
+      <c r="K52" s="4">
         <v>5400</v>
       </c>
-      <c r="K52" s="4">
+      <c r="L52" s="4">
         <v>105.88</v>
       </c>
-      <c r="L52" s="26">
+      <c r="M52" s="26">
         <f t="shared" si="3"/>
         <v>2.4458500000000001</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="N52" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="N52" s="6">
+      <c r="O52" s="6">
         <v>45694</v>
       </c>
-      <c r="O52" s="2">
+      <c r="P52" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="Q52" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="R52" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:19">
       <c r="A53" s="1">
         <v>45692</v>
       </c>
@@ -15603,37 +15659,38 @@
       <c r="I53" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="3"/>
+      <c r="K53" s="4">
         <v>2280</v>
       </c>
-      <c r="K53" s="4">
+      <c r="L53" s="4">
         <v>31</v>
       </c>
-      <c r="L53" s="26">
+      <c r="M53" s="26">
         <f t="shared" si="3"/>
         <v>0.66274999999999995</v>
       </c>
-      <c r="M53" s="5" t="s">
+      <c r="N53" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="N53" s="6">
+      <c r="O53" s="6">
         <v>45695</v>
       </c>
-      <c r="O53" s="2">
+      <c r="P53" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q53" s="3" t="s">
+      <c r="R53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="3" customFormat="1">
+    <row r="54" spans="1:19" s="3" customFormat="1">
       <c r="A54" s="1">
         <v>45691</v>
       </c>
@@ -15653,25 +15710,25 @@
         <v>166</v>
       </c>
       <c r="G54" s="20"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="3" t="s">
+      <c r="M54" s="24"/>
+      <c r="N54" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="N54" s="6">
+      <c r="O54" s="6">
         <v>45694</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q54" s="3" t="s">
+      <c r="R54" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:19">
       <c r="A55" s="1">
         <v>45693</v>
       </c>
@@ -15699,34 +15756,35 @@
       <c r="I55" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="3"/>
+      <c r="K55" s="4">
         <v>5820</v>
       </c>
-      <c r="K55" s="4">
+      <c r="L55" s="4">
         <v>101</v>
       </c>
-      <c r="L55" s="26">
-        <f t="shared" ref="L55:L83" si="4">(H55-J55)/4000</f>
+      <c r="M55" s="26">
+        <f t="shared" ref="M55:M83" si="4">(H55-K55)/4000</f>
         <v>2.3562500000000002</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="N55" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N55" s="6">
+      <c r="O55" s="6">
         <v>45694</v>
       </c>
-      <c r="O55" s="2">
+      <c r="P55" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q55" s="3" t="s">
+      <c r="R55" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:19">
       <c r="A56" s="1">
         <v>45693</v>
       </c>
@@ -15754,35 +15812,36 @@
       <c r="I56" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3">
         <v>8320</v>
       </c>
-      <c r="K56" s="3">
+      <c r="L56" s="3">
         <v>87</v>
       </c>
-      <c r="L56" s="26">
+      <c r="M56" s="26">
         <f t="shared" si="4"/>
         <v>2.81575</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="N56" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N56" s="6">
+      <c r="O56" s="6">
         <v>45706</v>
       </c>
-      <c r="O56" s="3">
+      <c r="P56" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q56" s="3" t="s">
+      <c r="R56" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="R56" s="4"/>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="S56" s="4"/>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="1">
         <v>45694</v>
       </c>
@@ -15807,35 +15866,36 @@
       <c r="I57" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3">
         <v>7569</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>103</v>
       </c>
-      <c r="L57" s="26">
+      <c r="M57" s="26">
         <f t="shared" si="4"/>
         <v>3.3572500000000001</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="N57" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="N57" s="6">
+      <c r="O57" s="6">
         <v>45695</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P57" s="7" t="s">
+      <c r="Q57" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3" t="s">
+      <c r="R57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R57" s="4"/>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="S57" s="4"/>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="1">
         <v>45695</v>
       </c>
@@ -15856,33 +15916,34 @@
       <c r="I58" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3"/>
+      <c r="K58" s="3">
         <v>1260</v>
       </c>
-      <c r="K58" s="3"/>
-      <c r="L58" s="26">
+      <c r="L58" s="3"/>
+      <c r="M58" s="26">
         <f t="shared" si="4"/>
         <v>-0.315</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="N58" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="N58" s="6">
+      <c r="O58" s="6">
         <v>45701</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="P58" s="7" t="s">
+      <c r="Q58" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="R58" s="4"/>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="S58" s="4"/>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="1">
         <v>45698</v>
       </c>
@@ -15905,35 +15966,36 @@
       <c r="I59" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3"/>
+      <c r="K59" s="3">
         <v>3480</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32</v>
       </c>
-      <c r="L59" s="26">
+      <c r="M59" s="26">
         <f t="shared" si="4"/>
         <v>1.2162500000000001</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="N59" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N59" s="6">
+      <c r="O59" s="6">
         <v>45700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="P59" s="7" t="s">
+      <c r="Q59" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3" t="s">
+      <c r="R59" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="R59" s="4"/>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="S59" s="4"/>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="1">
         <v>45698</v>
       </c>
@@ -15956,35 +16018,36 @@
       <c r="I60" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="3"/>
+      <c r="K60" s="3">
         <v>6160</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>-39</v>
       </c>
-      <c r="L60" s="26">
+      <c r="M60" s="26">
         <f t="shared" si="4"/>
         <v>0.49249999999999999</v>
       </c>
-      <c r="M60" s="3" t="s">
+      <c r="N60" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="N60" s="6">
+      <c r="O60" s="6">
         <v>45700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="P60" s="7" t="s">
+      <c r="Q60" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q60" s="3" t="s">
+      <c r="R60" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="R60" s="4"/>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="S60" s="4"/>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="1">
         <v>45698</v>
       </c>
@@ -16012,35 +16075,36 @@
       <c r="I61" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="3"/>
+      <c r="K61" s="3">
         <v>3240</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>59</v>
       </c>
-      <c r="L61" s="26">
+      <c r="M61" s="26">
         <f t="shared" si="4"/>
         <v>0.53700000000000003</v>
       </c>
-      <c r="M61" s="3" t="s">
+      <c r="N61" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="N61" s="6">
+      <c r="O61" s="6">
         <v>45701</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="P61" s="7" t="s">
+      <c r="Q61" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q61" s="3" t="s">
+      <c r="R61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R61" s="4"/>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="S61" s="4"/>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="1">
         <v>45698</v>
       </c>
@@ -16066,32 +16130,33 @@
       <c r="I62" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3"/>
+      <c r="K62" s="3">
         <v>2952</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>44</v>
       </c>
-      <c r="L62" s="26">
+      <c r="M62" s="26">
         <f t="shared" si="4"/>
         <v>0.15725</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="N62" s="1">
+      <c r="O62" s="1">
         <v>45713</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="P62" s="7" t="s">
+      <c r="Q62" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="4"/>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="S62" s="4"/>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="1">
         <v>45698</v>
       </c>
@@ -16119,35 +16184,36 @@
       <c r="I63" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="3"/>
+      <c r="K63" s="3">
         <v>3240</v>
       </c>
-      <c r="K63" s="3">
+      <c r="L63" s="3">
         <v>381</v>
       </c>
-      <c r="L63" s="26">
+      <c r="M63" s="26">
         <f t="shared" si="4"/>
         <v>7.7632500000000002</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="N63" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="N63" s="6">
+      <c r="O63" s="6">
         <v>45701</v>
       </c>
-      <c r="O63" s="3">
+      <c r="P63" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="P63" s="7" t="s">
+      <c r="Q63" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q63" s="3" t="s">
+      <c r="R63" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R63" s="4"/>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="S63" s="4"/>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="1">
         <v>45698</v>
       </c>
@@ -16172,35 +16238,36 @@
       <c r="I64" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="3"/>
+      <c r="K64" s="3">
         <v>6120</v>
       </c>
-      <c r="K64" s="3">
+      <c r="L64" s="3">
         <v>117</v>
       </c>
-      <c r="L64" s="26">
+      <c r="M64" s="26">
         <f t="shared" si="4"/>
         <v>3.2537500000000001</v>
       </c>
-      <c r="M64" s="3" t="s">
+      <c r="N64" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="N64" s="6">
+      <c r="O64" s="6">
         <v>45701</v>
       </c>
-      <c r="O64" s="3">
+      <c r="P64" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="P64" s="7" t="s">
+      <c r="Q64" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q64" s="3" t="s">
+      <c r="R64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R64" s="4"/>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="S64" s="4"/>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="1">
         <v>45699</v>
       </c>
@@ -16228,35 +16295,36 @@
       <c r="I65" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65" s="3"/>
+      <c r="K65" s="3">
         <v>3600</v>
       </c>
-      <c r="K65" s="3">
+      <c r="L65" s="3">
         <v>41</v>
       </c>
-      <c r="L65" s="26">
+      <c r="M65" s="26">
         <f t="shared" si="4"/>
         <v>0.13025</v>
       </c>
-      <c r="M65" s="3" t="s">
+      <c r="N65" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="N65" s="6">
+      <c r="O65" s="6">
         <v>45701</v>
       </c>
-      <c r="O65" s="3">
+      <c r="P65" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="P65" s="7" t="s">
+      <c r="Q65" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q65" s="3" t="s">
+      <c r="R65" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R65" s="4"/>
-    </row>
-    <row r="66" spans="1:18" s="3" customFormat="1">
+      <c r="S65" s="4"/>
+    </row>
+    <row r="66" spans="1:19" s="3" customFormat="1">
       <c r="A66" s="1">
         <v>45699</v>
       </c>
@@ -16282,34 +16350,34 @@
       <c r="I66" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5940</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>84</v>
       </c>
-      <c r="L66" s="26">
+      <c r="M66" s="26">
         <f t="shared" si="4"/>
         <v>1.8867499999999999</v>
       </c>
-      <c r="M66" s="3" t="s">
+      <c r="N66" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="N66" s="1">
+      <c r="O66" s="1">
         <v>45701</v>
       </c>
-      <c r="O66" s="3">
-        <f t="shared" ref="O66:O97" si="5">N66-A66</f>
+      <c r="P66" s="3">
+        <f t="shared" ref="P66:P97" si="5">O66-A66</f>
         <v>2</v>
       </c>
-      <c r="P66" s="7" t="s">
+      <c r="Q66" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q66" s="3" t="s">
+      <c r="R66" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="3" customFormat="1">
+    <row r="67" spans="1:19" s="3" customFormat="1">
       <c r="A67" s="1">
         <v>45699</v>
       </c>
@@ -16337,34 +16405,34 @@
       <c r="I67" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J67" s="3">
+      <c r="K67" s="3">
         <v>3600</v>
       </c>
-      <c r="K67" s="3">
+      <c r="L67" s="3">
         <v>118</v>
       </c>
-      <c r="L67" s="26">
+      <c r="M67" s="26">
         <f t="shared" si="4"/>
         <v>2.05775</v>
       </c>
-      <c r="M67" s="3" t="s">
+      <c r="N67" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="N67" s="1">
+      <c r="O67" s="1">
         <v>45701</v>
       </c>
-      <c r="O67" s="3">
+      <c r="P67" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="P67" s="7" t="s">
+      <c r="Q67" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q67" s="3" t="s">
+      <c r="R67" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:19">
       <c r="A68" s="1">
         <v>45700</v>
       </c>
@@ -16392,34 +16460,35 @@
       <c r="I68" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="3"/>
+      <c r="K68" s="3">
         <v>3600</v>
       </c>
-      <c r="K68" s="3">
+      <c r="L68" s="3">
         <v>115</v>
       </c>
-      <c r="L68" s="26">
+      <c r="M68" s="26">
         <f t="shared" si="4"/>
         <v>1.9857499999999999</v>
       </c>
-      <c r="M68" s="3" t="s">
+      <c r="N68" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="N68" s="1">
+      <c r="O68" s="1">
         <v>45702</v>
       </c>
-      <c r="O68" s="3">
+      <c r="P68" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="P68" s="7" t="s">
+      <c r="Q68" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q68" s="3" t="s">
+      <c r="R68" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:19">
       <c r="A69" s="1">
         <v>45701</v>
       </c>
@@ -16444,34 +16513,35 @@
       <c r="I69" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="3"/>
+      <c r="K69" s="3">
         <v>4446</v>
       </c>
-      <c r="K69" s="3">
+      <c r="L69" s="3">
         <v>69</v>
       </c>
-      <c r="L69" s="26">
+      <c r="M69" s="26">
         <f t="shared" si="4"/>
         <v>1.0285</v>
       </c>
-      <c r="M69" s="3" t="s">
+      <c r="N69" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="N69" s="1">
+      <c r="O69" s="1">
         <v>45705</v>
       </c>
-      <c r="O69" s="3">
+      <c r="P69" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="P69" s="7" t="s">
+      <c r="Q69" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q69" s="3" t="s">
+      <c r="R69" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:19">
       <c r="A70" s="1">
         <v>45702</v>
       </c>
@@ -16488,28 +16558,29 @@
         <v>239</v>
       </c>
       <c r="J70" s="3"/>
-      <c r="L70" s="26">
+      <c r="K70" s="3"/>
+      <c r="M70" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M70" s="3" t="s">
+      <c r="N70" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="N70" s="1">
+      <c r="O70" s="1">
         <v>45708</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="P70" s="7" t="s">
+      <c r="Q70" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q70" s="3" t="s">
+      <c r="R70" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:19">
       <c r="A71" s="1">
         <v>45702</v>
       </c>
@@ -16537,34 +16608,35 @@
       <c r="I71" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71" s="3"/>
+      <c r="K71" s="3">
         <v>3600</v>
       </c>
-      <c r="K71" s="3">
+      <c r="L71" s="3">
         <v>43</v>
       </c>
-      <c r="L71" s="26">
+      <c r="M71" s="26">
         <f t="shared" si="4"/>
         <v>0.18024999999999999</v>
       </c>
-      <c r="M71" s="3" t="s">
+      <c r="N71" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="N71" s="1">
+      <c r="O71" s="1">
         <v>45706</v>
       </c>
-      <c r="O71" s="3">
+      <c r="P71" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="P71" s="7" t="s">
+      <c r="Q71" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q71" s="3" t="s">
+      <c r="R71" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:19">
       <c r="A72" s="1">
         <v>45702</v>
       </c>
@@ -16589,34 +16661,35 @@
       <c r="I72" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3"/>
+      <c r="K72" s="3">
         <v>5580</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50</v>
       </c>
-      <c r="L72" s="26">
+      <c r="M72" s="26">
         <f t="shared" si="4"/>
         <v>0.50624999999999998</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="N72" s="1">
+      <c r="O72" s="1">
         <v>45709</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="P72" s="19" t="s">
+      <c r="Q72" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:19">
       <c r="A73" s="1">
         <v>45705</v>
       </c>
@@ -16644,31 +16717,32 @@
       <c r="I73" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J73" s="3"/>
+      <c r="K73" s="3">
         <v>3420</v>
       </c>
-      <c r="K73" s="3">
+      <c r="L73" s="3">
         <v>97</v>
       </c>
-      <c r="L73" s="26">
+      <c r="M73" s="26">
         <f t="shared" si="4"/>
         <v>1.4592499999999999</v>
       </c>
-      <c r="M73" s="3" t="s">
+      <c r="N73" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="N73" s="1">
+      <c r="O73" s="1">
         <v>45709</v>
       </c>
-      <c r="O73" s="3">
+      <c r="P73" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="P73" s="7" t="s">
+      <c r="Q73" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:19">
       <c r="A74" s="1">
         <v>45706</v>
       </c>
@@ -16696,34 +16770,35 @@
       <c r="I74" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="3"/>
+      <c r="K74" s="3">
         <v>4320</v>
       </c>
-      <c r="K74" s="3">
+      <c r="L74" s="3">
         <v>54</v>
       </c>
-      <c r="L74" s="24">
+      <c r="M74" s="24">
         <f t="shared" si="4"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="M74" s="3" t="s">
+      <c r="N74" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="N74" s="1">
+      <c r="O74" s="1">
         <v>45713</v>
       </c>
-      <c r="O74" s="3">
+      <c r="P74" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="P74" s="7" t="s">
+      <c r="Q74" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q74" s="3" t="s">
+      <c r="R74" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:19">
       <c r="A75" s="1">
         <v>45706</v>
       </c>
@@ -16751,31 +16826,32 @@
       <c r="I75" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="3"/>
+      <c r="K75" s="3">
         <v>3600</v>
       </c>
-      <c r="K75" s="3">
+      <c r="L75" s="3">
         <v>65</v>
       </c>
-      <c r="L75" s="24">
+      <c r="M75" s="24">
         <f t="shared" si="4"/>
         <v>0.73199999999999998</v>
       </c>
-      <c r="M75" s="3" t="s">
+      <c r="N75" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="N75" s="1">
+      <c r="O75" s="1">
         <v>45709</v>
       </c>
-      <c r="O75" s="3">
+      <c r="P75" s="3">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="P75" s="7" t="s">
+      <c r="Q75" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:19">
       <c r="A76" s="1">
         <v>45706</v>
       </c>
@@ -16800,34 +16876,35 @@
       <c r="I76" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3"/>
+      <c r="K76" s="3">
         <v>3960</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>68</v>
       </c>
-      <c r="L76" s="24">
+      <c r="M76" s="24">
         <f t="shared" si="4"/>
         <v>0.81950000000000001</v>
       </c>
-      <c r="M76" s="3" t="s">
+      <c r="N76" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="N76" s="1">
+      <c r="O76" s="1">
         <v>45709</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="P76" s="19" t="s">
+      <c r="Q76" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q76" s="3" t="s">
+      <c r="R76" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:19">
       <c r="A77" s="1">
         <v>45707</v>
       </c>
@@ -16855,34 +16932,35 @@
       <c r="I77" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="3"/>
+      <c r="K77" s="3">
         <v>7344</v>
       </c>
-      <c r="K77" s="3">
+      <c r="L77" s="3">
         <v>47</v>
       </c>
-      <c r="L77" s="24">
+      <c r="M77" s="24">
         <f t="shared" si="4"/>
         <v>0.55700000000000005</v>
       </c>
-      <c r="M77" s="3" t="s">
+      <c r="N77" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="N77" s="1">
+      <c r="O77" s="1">
         <v>45708</v>
       </c>
-      <c r="O77" s="3">
+      <c r="P77" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P77" s="7" t="s">
+      <c r="Q77" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q77" s="3" t="s">
+      <c r="R77" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:19">
       <c r="A78" s="1">
         <v>45709</v>
       </c>
@@ -16910,34 +16988,35 @@
       <c r="I78" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="3"/>
+      <c r="K78" s="3">
         <v>4806</v>
       </c>
-      <c r="K78" s="3">
+      <c r="L78" s="3">
         <v>204</v>
       </c>
-      <c r="L78" s="24">
+      <c r="M78" s="24">
         <f t="shared" si="4"/>
         <v>5.2169999999999996</v>
       </c>
-      <c r="M78" s="3" t="s">
+      <c r="N78" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="N78" s="1">
+      <c r="O78" s="1">
         <v>45709</v>
       </c>
-      <c r="O78" s="3">
+      <c r="P78" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P78" s="19" t="s">
+      <c r="Q78" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q78" s="3" t="s">
+      <c r="R78" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:19">
       <c r="A79" s="1">
         <v>45709</v>
       </c>
@@ -16965,34 +17044,35 @@
       <c r="I79" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="3"/>
+      <c r="K79" s="3">
         <v>5580</v>
       </c>
-      <c r="K79" s="3">
+      <c r="L79" s="3">
         <v>65</v>
       </c>
-      <c r="L79" s="24">
+      <c r="M79" s="24">
         <f t="shared" si="4"/>
         <v>1.0822499999999999</v>
       </c>
-      <c r="M79" s="3" t="s">
+      <c r="N79" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="N79" s="1">
+      <c r="O79" s="1">
         <v>45709</v>
       </c>
-      <c r="O79" s="3">
+      <c r="P79" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P79" s="7" t="s">
+      <c r="Q79" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q79" s="3" t="s">
+      <c r="R79" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:19">
       <c r="A80" s="1">
         <v>45714</v>
       </c>
@@ -17017,34 +17097,35 @@
       <c r="I80" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="3"/>
+      <c r="K80" s="3">
         <v>3240</v>
       </c>
-      <c r="K80" s="3">
+      <c r="L80" s="3">
         <v>272</v>
       </c>
-      <c r="L80" s="24">
+      <c r="M80" s="24">
         <f t="shared" si="4"/>
         <v>5.3259999999999996</v>
       </c>
-      <c r="M80" s="3" t="s">
+      <c r="N80" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="N80" s="1">
+      <c r="O80" s="1">
         <v>45715</v>
       </c>
-      <c r="O80" s="3">
+      <c r="P80" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P80" s="7" t="s">
+      <c r="Q80" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q80" s="3" t="s">
+      <c r="R80" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="28.8">
+    <row r="81" spans="1:19" ht="28.8">
       <c r="A81" s="1">
         <v>45714</v>
       </c>
@@ -17070,34 +17151,35 @@
       <c r="I81" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J81" s="5">
+      <c r="J81" s="5"/>
+      <c r="K81" s="5">
         <v>3960</v>
       </c>
-      <c r="K81" s="5">
+      <c r="L81" s="5">
         <v>72</v>
       </c>
-      <c r="L81" s="23">
+      <c r="M81" s="23">
         <f t="shared" si="4"/>
         <v>0.99775000000000003</v>
       </c>
-      <c r="M81" s="5" t="s">
+      <c r="N81" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="N81" s="1">
+      <c r="O81" s="1">
         <v>45715</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P81" s="7" t="s">
+      <c r="Q81" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q81" s="3" t="s">
+      <c r="R81" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:19">
       <c r="A82" s="1">
         <v>45714</v>
       </c>
@@ -17125,34 +17207,35 @@
       <c r="I82" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J82" s="5" t="s">
+      <c r="J82" s="5"/>
+      <c r="K82" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="K82" s="5" t="s">
+      <c r="L82" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="L82" s="23">
+      <c r="M82" s="23">
         <f t="shared" si="4"/>
         <v>0.23075000000000001</v>
       </c>
-      <c r="M82" s="5" t="s">
+      <c r="N82" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="N82" s="1">
+      <c r="O82" s="1">
         <v>45716</v>
       </c>
-      <c r="O82" s="3">
+      <c r="P82" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="P82" s="19" t="s">
+      <c r="Q82" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q82" s="3" t="s">
+      <c r="R82" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:19">
       <c r="A83" s="1">
         <v>45714</v>
       </c>
@@ -17177,34 +17260,35 @@
       <c r="I83" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3"/>
+      <c r="K83" s="3">
         <v>3960</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43</v>
       </c>
-      <c r="L83" s="24">
+      <c r="M83" s="24">
         <f t="shared" si="4"/>
         <v>0.19850000000000001</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="N83" s="1">
+      <c r="O83" s="1">
         <v>45720</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="P83" s="7" t="s">
+      <c r="Q83" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3" t="s">
+      <c r="R83" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="28.8">
+    <row r="84" spans="1:19" ht="28.8">
       <c r="A84" s="1">
         <v>45714</v>
       </c>
@@ -17232,31 +17316,32 @@
       <c r="I84" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J84" s="5">
+      <c r="J84" s="5"/>
+      <c r="K84" s="5">
         <v>5580</v>
       </c>
-      <c r="K84" s="5">
+      <c r="L84" s="5">
         <v>29</v>
       </c>
-      <c r="L84" s="23"/>
-      <c r="M84" s="5" t="s">
+      <c r="M84" s="23"/>
+      <c r="N84" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="N84" s="1">
+      <c r="O84" s="1">
         <v>45720</v>
       </c>
-      <c r="O84" s="3">
+      <c r="P84" s="3">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="P84" s="7" t="s">
+      <c r="Q84" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q84" s="3" t="s">
+      <c r="R84" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:19">
       <c r="A85" s="1">
         <v>45715</v>
       </c>
@@ -17284,34 +17369,35 @@
       <c r="I85" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J85" s="5">
+      <c r="J85" s="5"/>
+      <c r="K85" s="5">
         <v>4446</v>
       </c>
-      <c r="K85" s="5">
+      <c r="L85" s="5">
         <v>43</v>
       </c>
-      <c r="L85" s="23">
-        <f>(H85-J85)/4000</f>
+      <c r="M85" s="23">
+        <f>(H85-K85)/4000</f>
         <v>0.23100000000000001</v>
       </c>
-      <c r="M85" s="5" t="s">
+      <c r="N85" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="N85" s="1">
+      <c r="O85" s="1">
         <v>45720</v>
       </c>
-      <c r="O85" s="3">
+      <c r="P85" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="P85" s="7" t="s">
+      <c r="Q85" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q85" s="3" t="s">
+      <c r="R85" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:19">
       <c r="A86" s="1">
         <v>45716</v>
       </c>
@@ -17337,34 +17423,35 @@
       <c r="I86" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J86" s="5">
+      <c r="J86" s="5"/>
+      <c r="K86" s="5">
         <v>5940</v>
       </c>
-      <c r="K86" s="5">
+      <c r="L86" s="5">
         <v>128</v>
       </c>
-      <c r="L86" s="23">
-        <f>(H86-J86)/4000</f>
+      <c r="M86" s="23">
+        <f>(H86-K86)/4000</f>
         <v>3.5665</v>
       </c>
-      <c r="M86" s="5" t="s">
+      <c r="N86" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="N86" s="1">
+      <c r="O86" s="1">
         <v>45720</v>
       </c>
-      <c r="O86" s="3">
+      <c r="P86" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="P86" s="7" t="s">
+      <c r="Q86" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q86" s="3" t="s">
+      <c r="R86" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:19">
       <c r="A87" s="1">
         <v>45719</v>
       </c>
@@ -17392,34 +17479,35 @@
       <c r="I87" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J87" s="5">
+      <c r="J87" s="5"/>
+      <c r="K87" s="5">
         <v>8280</v>
       </c>
-      <c r="K87" s="5">
+      <c r="L87" s="5">
         <v>40</v>
       </c>
-      <c r="L87" s="23">
-        <f>(H87-J87)/4000</f>
+      <c r="M87" s="23">
+        <f>(H87-K87)/4000</f>
         <v>0.26700000000000002</v>
       </c>
-      <c r="M87" s="5" t="s">
+      <c r="N87" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="N87" s="1">
+      <c r="O87" s="1">
         <v>45720</v>
       </c>
-      <c r="O87" s="3">
+      <c r="P87" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P87" s="7" t="s">
+      <c r="Q87" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q87" s="3" t="s">
+      <c r="R87" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:19">
       <c r="A88" s="1">
         <v>45719</v>
       </c>
@@ -17445,34 +17533,35 @@
       <c r="I88" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J88" s="5" t="s">
+      <c r="J88" s="5"/>
+      <c r="K88" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="K88" s="5" t="s">
+      <c r="L88" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="L88" s="23">
-        <f>(H88-J88)/4000</f>
+      <c r="M88" s="23">
+        <f>(H88-K88)/4000</f>
         <v>0.78449999999999998</v>
       </c>
-      <c r="M88" s="5" t="s">
+      <c r="N88" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="N88" s="1">
+      <c r="O88" s="1">
         <v>45720</v>
       </c>
-      <c r="O88" s="3">
+      <c r="P88" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P88" s="7" t="s">
+      <c r="Q88" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q88" s="3" t="s">
+      <c r="R88" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:19">
       <c r="A89" s="1">
         <v>45719</v>
       </c>
@@ -17497,34 +17586,35 @@
       <c r="I89" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J89" s="5">
+      <c r="J89" s="5"/>
+      <c r="K89" s="5">
         <v>3960</v>
       </c>
-      <c r="K89" s="5">
+      <c r="L89" s="5">
         <v>63</v>
       </c>
-      <c r="L89" s="23">
-        <f>(H89-J89)/4000</f>
+      <c r="M89" s="23">
+        <f>(H89-K89)/4000</f>
         <v>0.67874999999999996</v>
       </c>
-      <c r="M89" s="5" t="s">
+      <c r="N89" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="N89" s="1">
+      <c r="O89" s="1">
         <v>45720</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P89" s="7" t="s">
+      <c r="Q89" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q89" s="3" t="s">
+      <c r="R89" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:19">
       <c r="A90" s="1">
         <v>45719</v>
       </c>
@@ -17552,35 +17642,36 @@
       <c r="I90" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J90" s="5">
+      <c r="J90" s="5"/>
+      <c r="K90" s="5">
         <v>8581</v>
       </c>
-      <c r="K90" s="5">
+      <c r="L90" s="5">
         <v>128</v>
       </c>
-      <c r="L90" s="24">
-        <f>(G90-J90)/4000</f>
+      <c r="M90" s="24">
+        <f>(G90-K90)/4000</f>
         <v>2.2432500000000002</v>
       </c>
-      <c r="M90" s="5" t="s">
+      <c r="N90" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="N90" s="1">
+      <c r="O90" s="1">
         <v>45720</v>
       </c>
-      <c r="O90" s="3">
+      <c r="P90" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P90" s="7" t="s">
+      <c r="Q90" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q90" s="3" t="s">
+      <c r="R90" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="1">
         <v>45721</v>
       </c>
@@ -17608,34 +17699,35 @@
       <c r="I91" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="J91" s="5">
+      <c r="J91" s="5"/>
+      <c r="K91" s="5">
         <v>8280</v>
       </c>
-      <c r="K91" s="5">
+      <c r="L91" s="5">
         <v>39</v>
       </c>
-      <c r="L91" s="24">
-        <f t="shared" ref="L91:L122" si="6">(H91-J91)/4000</f>
+      <c r="M91" s="24">
+        <f t="shared" ref="M91:M122" si="6">(H91-K91)/4000</f>
         <v>0.17</v>
       </c>
-      <c r="M91" s="5" t="s">
+      <c r="N91" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="N91" s="1">
+      <c r="O91" s="1">
         <v>45726</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="P91" s="7" t="s">
+      <c r="Q91" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="R91" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:19">
       <c r="A92" s="1">
         <v>45722</v>
       </c>
@@ -17660,34 +17752,35 @@
       <c r="I92" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J92" s="5">
+      <c r="J92" s="5"/>
+      <c r="K92" s="5">
         <v>5220</v>
       </c>
-      <c r="K92" s="5">
+      <c r="L92" s="5">
         <v>102</v>
       </c>
-      <c r="L92" s="24">
+      <c r="M92" s="24">
         <f t="shared" si="6"/>
         <v>2.4790000000000001</v>
       </c>
-      <c r="M92" s="5" t="s">
+      <c r="N92" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="N92" s="1">
+      <c r="O92" s="1">
         <v>45730</v>
       </c>
-      <c r="O92" s="3">
+      <c r="P92" s="3">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="P92" s="7" t="s">
+      <c r="Q92" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q92" s="3" t="s">
+      <c r="R92" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="43.2">
+    <row r="93" spans="1:19" ht="43.2">
       <c r="A93" s="1">
         <v>45726</v>
       </c>
@@ -17712,34 +17805,35 @@
       <c r="I93" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J93" s="5" t="s">
+      <c r="J93" s="5"/>
+      <c r="K93" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="K93" s="5" t="s">
+      <c r="L93" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="L93" s="24">
+      <c r="M93" s="24">
         <f t="shared" si="6"/>
         <v>2.8507500000000001</v>
       </c>
-      <c r="M93" s="5" t="s">
+      <c r="N93" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="N93" s="1">
+      <c r="O93" s="1">
         <v>45734</v>
       </c>
-      <c r="O93" s="3">
+      <c r="P93" s="3">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="P93" s="7" t="s">
+      <c r="Q93" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q93" s="3" t="s">
+      <c r="R93" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:19">
       <c r="A94" s="1">
         <v>45726</v>
       </c>
@@ -17764,34 +17858,35 @@
       <c r="I94" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J94" s="5">
+      <c r="J94" s="5"/>
+      <c r="K94" s="5">
         <v>6480</v>
       </c>
-      <c r="K94" s="5">
+      <c r="L94" s="5">
         <v>65</v>
       </c>
-      <c r="L94" s="23">
+      <c r="M94" s="23">
         <f t="shared" si="6"/>
         <v>1.2484999999999999</v>
       </c>
-      <c r="M94" s="5" t="s">
+      <c r="N94" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="N94" s="1">
+      <c r="O94" s="1">
         <v>45734</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="P94" s="7" t="s">
+      <c r="Q94" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3" t="s">
+      <c r="R94" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:19">
       <c r="A95" s="1">
         <v>45727</v>
       </c>
@@ -17810,31 +17905,32 @@
       <c r="I95" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J95" s="5">
+      <c r="J95" s="5"/>
+      <c r="K95" s="5">
         <v>3780</v>
       </c>
-      <c r="L95" s="23">
+      <c r="M95" s="23">
         <f t="shared" si="6"/>
         <v>2.9212500000000001</v>
       </c>
-      <c r="M95" s="5" t="s">
+      <c r="N95" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="N95" s="1">
+      <c r="O95" s="1">
         <v>45734</v>
       </c>
-      <c r="O95" s="3">
+      <c r="P95" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="P95" s="7" t="s">
+      <c r="Q95" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q95" s="3" t="s">
+      <c r="R95" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:19">
       <c r="A96" s="1">
         <v>45728</v>
       </c>
@@ -17859,34 +17955,35 @@
       <c r="I96" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J96" s="5">
+      <c r="J96" s="5"/>
+      <c r="K96" s="5">
         <v>5580</v>
       </c>
-      <c r="K96" s="5">
+      <c r="L96" s="5">
         <v>70</v>
       </c>
-      <c r="L96" s="23">
+      <c r="M96" s="23">
         <f t="shared" si="6"/>
         <v>1.24</v>
       </c>
-      <c r="M96" s="5" t="s">
+      <c r="N96" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="N96" s="1">
+      <c r="O96" s="1">
         <v>45735</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="P96" s="7" t="s">
+      <c r="Q96" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q96" s="3" t="s">
+      <c r="R96" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:20">
       <c r="A97" s="1">
         <v>45728</v>
       </c>
@@ -17914,34 +18011,35 @@
       <c r="I97" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J97" s="5">
+      <c r="J97" s="5"/>
+      <c r="K97" s="5">
         <v>7812</v>
       </c>
-      <c r="K97" s="5">
+      <c r="L97" s="5">
         <v>100</v>
       </c>
-      <c r="L97" s="23">
+      <c r="M97" s="23">
         <f t="shared" si="6"/>
         <v>3.5062500000000001</v>
       </c>
-      <c r="M97" s="5" t="s">
+      <c r="N97" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="N97" s="1">
+      <c r="O97" s="1">
         <v>45735</v>
       </c>
-      <c r="O97" s="3">
+      <c r="P97" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="P97" s="7" t="s">
+      <c r="Q97" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q97" s="3" t="s">
+      <c r="R97" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:20">
       <c r="A98" s="1">
         <v>45733</v>
       </c>
@@ -17969,34 +18067,35 @@
       <c r="I98" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="J98" s="5">
+      <c r="J98" s="5"/>
+      <c r="K98" s="5">
         <v>5820</v>
       </c>
-      <c r="K98" s="5">
+      <c r="L98" s="5">
         <v>102</v>
       </c>
-      <c r="L98" s="23">
+      <c r="M98" s="23">
         <f t="shared" si="6"/>
         <v>2.4184999999999999</v>
       </c>
-      <c r="M98" s="5" t="s">
+      <c r="N98" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="N98" s="1">
+      <c r="O98" s="1">
         <v>45735</v>
       </c>
-      <c r="O98" s="3">
-        <f t="shared" ref="O98:O103" si="7">N98-A98</f>
+      <c r="P98" s="3">
+        <f t="shared" ref="P98:P103" si="7">O98-A98</f>
         <v>2</v>
       </c>
-      <c r="P98" s="7" t="s">
+      <c r="Q98" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q98" s="3" t="s">
+      <c r="R98" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="28.8">
+    <row r="99" spans="1:20" ht="28.8">
       <c r="A99" s="1">
         <v>45733</v>
       </c>
@@ -18024,34 +18123,35 @@
       <c r="I99" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J99" s="5">
+      <c r="J99" s="3"/>
+      <c r="K99" s="5">
         <v>3420</v>
       </c>
-      <c r="K99" s="5">
+      <c r="L99" s="5">
         <v>1123</v>
       </c>
-      <c r="L99" s="23">
+      <c r="M99" s="23">
         <f t="shared" si="6"/>
         <v>1.8167500000000001</v>
       </c>
-      <c r="M99" s="5" t="s">
+      <c r="N99" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="N99" s="1">
+      <c r="O99" s="1">
         <v>45744</v>
       </c>
-      <c r="O99" s="3">
+      <c r="P99" s="3">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="P99" s="7" t="s">
+      <c r="Q99" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q99" s="3" t="s">
+      <c r="R99" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:20">
       <c r="A100" s="1">
         <v>45733</v>
       </c>
@@ -18076,34 +18176,35 @@
       <c r="I100" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J100" s="5">
+      <c r="J100" s="5"/>
+      <c r="K100" s="5">
         <v>10140</v>
       </c>
-      <c r="K100" s="5">
+      <c r="L100" s="5">
         <v>80</v>
       </c>
-      <c r="L100" s="23">
+      <c r="M100" s="23">
         <f t="shared" si="6"/>
         <v>2.6680000000000001</v>
       </c>
-      <c r="M100" s="5" t="s">
+      <c r="N100" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="N100" s="1">
+      <c r="O100" s="1">
         <v>45736</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="P100" s="7" t="s">
+      <c r="Q100" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3" t="s">
+      <c r="R100" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:20">
       <c r="A101" s="1">
         <v>45734</v>
       </c>
@@ -18128,34 +18229,35 @@
       <c r="I101" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J101" s="5">
+      <c r="J101" s="5"/>
+      <c r="K101" s="5">
         <v>9360</v>
       </c>
-      <c r="K101" s="5">
+      <c r="L101" s="5">
         <v>41</v>
       </c>
-      <c r="L101" s="23">
+      <c r="M101" s="23">
         <f t="shared" si="6"/>
         <v>0.34775</v>
       </c>
-      <c r="M101" s="5" t="s">
+      <c r="N101" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="N101" s="1">
+      <c r="O101" s="1">
         <v>45736</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="P101" s="7" t="s">
+      <c r="Q101" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3" t="s">
+      <c r="R101" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:20">
       <c r="A102" s="1">
         <v>45734</v>
       </c>
@@ -18180,31 +18282,32 @@
       <c r="I102" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J102" s="5">
+      <c r="J102" s="5"/>
+      <c r="K102" s="5">
         <v>5580</v>
       </c>
-      <c r="L102" s="23">
+      <c r="M102" s="23">
         <f t="shared" si="6"/>
         <v>3.53125</v>
       </c>
-      <c r="M102" s="5" t="s">
+      <c r="N102" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="N102" s="1">
+      <c r="O102" s="1">
         <v>45742</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="P102" s="7" t="s">
+      <c r="Q102" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:20">
       <c r="A103" s="1">
         <v>45735</v>
       </c>
@@ -18232,31 +18335,32 @@
       <c r="I103" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K103" s="5">
+      <c r="J103" s="5"/>
+      <c r="L103" s="5">
         <v>55</v>
       </c>
-      <c r="L103" s="23">
+      <c r="M103" s="23">
         <f t="shared" si="6"/>
         <v>3.1015000000000001</v>
       </c>
-      <c r="M103" s="5" t="s">
+      <c r="N103" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="N103" s="1">
+      <c r="O103" s="1">
         <v>45742</v>
       </c>
-      <c r="O103" s="3">
+      <c r="P103" s="3">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="P103" s="7" t="s">
+      <c r="Q103" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q103" s="3" t="s">
+      <c r="R103" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:20">
       <c r="A104" s="1">
         <v>45735</v>
       </c>
@@ -18284,31 +18388,32 @@
       <c r="I104" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L104" s="23">
+      <c r="J104" s="5"/>
+      <c r="M104" s="23">
         <f t="shared" si="6"/>
         <v>1.0289999999999999</v>
       </c>
-      <c r="M104" s="5" t="s">
+      <c r="N104" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="N104" s="1">
+      <c r="O104" s="1">
         <v>45748</v>
       </c>
-      <c r="O104" s="3">
-        <f t="shared" ref="O104:O111" si="8">N104-A104</f>
+      <c r="P104" s="3">
+        <f t="shared" ref="P104:P111" si="8">O104-A104</f>
         <v>13</v>
       </c>
-      <c r="P104" s="7" t="s">
+      <c r="Q104" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q104" s="3" t="s">
+      <c r="R104" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S104" t="s">
+      <c r="T104" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:20">
       <c r="A105" s="1">
         <v>45735</v>
       </c>
@@ -18336,31 +18441,32 @@
       <c r="I105" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L105" s="23">
+      <c r="J105" s="5"/>
+      <c r="M105" s="23">
         <f t="shared" si="6"/>
         <v>0.99275000000000002</v>
       </c>
-      <c r="M105" s="5" t="s">
+      <c r="N105" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="N105" s="1">
+      <c r="O105" s="1">
         <v>45742</v>
       </c>
-      <c r="O105" s="3">
+      <c r="P105" s="3">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="P105" s="7" t="s">
+      <c r="Q105" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q105" s="3" t="s">
+      <c r="R105" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="S105" t="s">
+      <c r="T105" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:20">
       <c r="A106" s="1">
         <v>45735</v>
       </c>
@@ -18388,34 +18494,35 @@
       <c r="I106" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="5"/>
+      <c r="K106">
         <v>3480</v>
       </c>
-      <c r="K106" s="5">
+      <c r="L106" s="5">
         <v>53</v>
       </c>
-      <c r="L106" s="23">
+      <c r="M106" s="23">
         <f t="shared" si="6"/>
         <v>0.33374999999999999</v>
       </c>
-      <c r="M106" s="5" t="s">
+      <c r="N106" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="N106" s="1">
+      <c r="O106" s="1">
         <v>45742</v>
       </c>
-      <c r="O106" s="3">
+      <c r="P106" s="3">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="P106" s="7" t="s">
+      <c r="Q106" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q106" s="3" t="s">
+      <c r="R106" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:20">
       <c r="A107" s="1">
         <v>45735</v>
       </c>
@@ -18441,34 +18548,35 @@
       <c r="I107" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="5"/>
+      <c r="K107">
         <v>4446</v>
       </c>
-      <c r="K107" s="5">
+      <c r="L107" s="5">
         <v>124</v>
       </c>
-      <c r="L107" s="23">
+      <c r="M107" s="23">
         <f t="shared" si="6"/>
         <v>2.7247499999999998</v>
       </c>
-      <c r="M107" s="5" t="s">
+      <c r="N107" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="N107" s="1">
+      <c r="O107" s="1">
         <v>45742</v>
       </c>
-      <c r="O107" s="3">
+      <c r="P107" s="3">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="P107" s="7" t="s">
+      <c r="Q107" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q107" s="3" t="s">
+      <c r="R107" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:20">
       <c r="A108" s="1">
         <v>45736</v>
       </c>
@@ -18493,37 +18601,38 @@
       <c r="I108" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="5"/>
+      <c r="K108">
         <v>4446</v>
       </c>
-      <c r="K108" s="5">
+      <c r="L108" s="5">
         <v>44</v>
       </c>
-      <c r="L108" s="23">
+      <c r="M108" s="23">
         <f t="shared" si="6"/>
         <v>0.24475</v>
       </c>
-      <c r="M108" s="5" t="s">
+      <c r="N108" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="N108" s="1">
+      <c r="O108" s="1">
         <v>45748</v>
       </c>
-      <c r="O108" s="3">
+      <c r="P108" s="3">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="P108" s="7" t="s">
+      <c r="Q108" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q108" s="3" t="s">
+      <c r="R108" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S108" t="s">
+      <c r="T108" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:20">
       <c r="A109" s="1">
         <v>45736</v>
       </c>
@@ -18551,37 +18660,38 @@
       <c r="I109" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="5"/>
+      <c r="K109">
         <v>13800</v>
       </c>
-      <c r="K109" s="5">
+      <c r="L109" s="5">
         <v>62</v>
       </c>
-      <c r="L109" s="23">
+      <c r="M109" s="23">
         <f t="shared" si="6"/>
         <v>2.3330000000000002</v>
       </c>
-      <c r="M109" s="5" t="s">
+      <c r="N109" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="N109" s="1">
+      <c r="O109" s="1">
         <v>45748</v>
       </c>
-      <c r="O109" s="3">
+      <c r="P109" s="3">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="P109" s="7" t="s">
+      <c r="Q109" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q109" s="3" t="s">
+      <c r="R109" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S109" t="s">
+      <c r="T109" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:20">
       <c r="A110" s="1">
         <v>45737</v>
       </c>
@@ -18609,37 +18719,38 @@
       <c r="I110" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="5"/>
+      <c r="K110">
         <v>5580</v>
       </c>
-      <c r="K110" s="5">
+      <c r="L110" s="5">
         <v>62</v>
       </c>
-      <c r="L110" s="23">
+      <c r="M110" s="23">
         <f t="shared" si="6"/>
         <v>0.9650025000000001</v>
       </c>
-      <c r="M110" s="5" t="s">
+      <c r="N110" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="N110" s="1">
+      <c r="O110" s="1">
         <v>45744</v>
       </c>
-      <c r="O110" s="3">
+      <c r="P110" s="3">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="P110" s="7" t="s">
+      <c r="Q110" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q110" s="3" t="s">
+      <c r="R110" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S110" t="s">
+      <c r="T110" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="28.8">
+    <row r="111" spans="1:20" ht="28.8">
       <c r="A111" s="1">
         <v>45737</v>
       </c>
@@ -18657,29 +18768,30 @@
       <c r="I111" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L111" s="23">
+      <c r="J111" s="5"/>
+      <c r="M111" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M111" s="5" t="s">
+      <c r="N111" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="N111" s="1">
+      <c r="O111" s="1">
         <v>45748</v>
       </c>
-      <c r="O111" s="3">
+      <c r="P111" s="3">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="P111" s="7" t="s">
+      <c r="Q111" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q111" s="3" t="s">
+      <c r="R111" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S111" s="7"/>
-    </row>
-    <row r="112" spans="1:19" ht="28.8">
+      <c r="T111" s="7"/>
+    </row>
+    <row r="112" spans="1:20" ht="28.8">
       <c r="A112" s="1">
         <v>45740</v>
       </c>
@@ -18707,34 +18819,35 @@
       <c r="I112" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="5"/>
+      <c r="K112">
         <v>4446</v>
       </c>
-      <c r="K112" s="5">
+      <c r="L112" s="5">
         <v>215</v>
       </c>
-      <c r="L112" s="23">
+      <c r="M112" s="23">
         <f t="shared" si="6"/>
         <v>5.5501499999999995</v>
       </c>
-      <c r="M112" s="5" t="s">
+      <c r="N112" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="N112" s="1">
+      <c r="O112" s="1">
         <v>45742</v>
       </c>
-      <c r="O112" s="3">
-        <f>N112-A112</f>
+      <c r="P112" s="3">
+        <f>O112-A112</f>
         <v>2</v>
       </c>
-      <c r="P112" s="7" t="s">
+      <c r="Q112" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q112" s="3" t="s">
+      <c r="R112" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:18">
       <c r="A113" s="1">
         <v>45741</v>
       </c>
@@ -18755,31 +18868,32 @@
       <c r="I113" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="5"/>
+      <c r="K113">
         <v>1111</v>
       </c>
-      <c r="L113" s="23">
+      <c r="M113" s="23">
         <f t="shared" si="6"/>
         <v>-0.27775</v>
       </c>
-      <c r="M113" s="5" t="s">
+      <c r="N113" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="N113" s="1">
+      <c r="O113" s="1">
         <v>45748</v>
       </c>
-      <c r="O113" s="3">
-        <f>N113-A113</f>
+      <c r="P113" s="3">
+        <f>O113-A113</f>
         <v>7</v>
       </c>
-      <c r="P113" s="7" t="s">
+      <c r="Q113" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q113" s="3" t="s">
+      <c r="R113" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="43.2">
+    <row r="114" spans="1:18" ht="43.2">
       <c r="A114" s="1">
         <v>45741</v>
       </c>
@@ -18805,34 +18919,35 @@
       <c r="I114" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="5"/>
+      <c r="K114">
         <v>4740</v>
       </c>
-      <c r="K114" s="5">
+      <c r="L114" s="5">
         <v>59</v>
       </c>
-      <c r="L114" s="23">
+      <c r="M114" s="23">
         <f t="shared" si="6"/>
         <v>0.67325000000000002</v>
       </c>
-      <c r="M114" s="5" t="s">
+      <c r="N114" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="N114" s="1">
+      <c r="O114" s="1">
         <v>45748</v>
       </c>
-      <c r="O114" s="3">
-        <f t="shared" ref="O114:O121" si="9">N114-A114</f>
+      <c r="P114" s="3">
+        <f t="shared" ref="P114:P121" si="9">O114-A114</f>
         <v>7</v>
       </c>
-      <c r="P114" s="7" t="s">
+      <c r="Q114" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q114" s="3" t="s">
+      <c r="R114" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:18">
       <c r="A115" s="1">
         <v>45741</v>
       </c>
@@ -18857,34 +18972,35 @@
       <c r="I115" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="5"/>
+      <c r="K115">
         <v>4500</v>
       </c>
-      <c r="K115">
+      <c r="L115">
         <v>92</v>
       </c>
-      <c r="L115" s="23">
+      <c r="M115" s="23">
         <f t="shared" si="6"/>
         <v>1.625</v>
       </c>
-      <c r="M115" s="5" t="s">
+      <c r="N115" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="N115" s="1">
+      <c r="O115" s="1">
         <v>45748</v>
       </c>
-      <c r="O115" s="3">
+      <c r="P115" s="3">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="P115" s="7" t="s">
+      <c r="Q115" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q115" s="3" t="s">
+      <c r="R115" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:18">
       <c r="A116" s="1">
         <v>45742</v>
       </c>
@@ -18907,34 +19023,35 @@
       <c r="I116" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="5"/>
+      <c r="K116">
         <v>1800</v>
       </c>
-      <c r="K116" s="5">
+      <c r="L116" s="5">
         <v>36</v>
       </c>
-      <c r="L116" s="23">
+      <c r="M116" s="23">
         <f t="shared" si="6"/>
         <v>8.14025</v>
       </c>
-      <c r="M116" s="5" t="s">
+      <c r="N116" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="N116" s="1">
+      <c r="O116" s="1">
         <v>45748</v>
       </c>
-      <c r="O116" s="3">
+      <c r="P116" s="3">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="P116" s="7" t="s">
+      <c r="Q116" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q116" s="3" t="s">
+      <c r="R116" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:18">
       <c r="A117" s="1">
         <v>45744</v>
       </c>
@@ -18952,28 +19069,29 @@
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
-      <c r="L117" s="23">
+      <c r="J117" s="5"/>
+      <c r="M117" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M117" s="5" t="s">
+      <c r="N117" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="N117" s="1">
+      <c r="O117" s="1">
         <v>45748</v>
       </c>
-      <c r="O117" s="3">
+      <c r="P117" s="3">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="P117" s="7" t="s">
+      <c r="Q117" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q117" s="3" t="s">
+      <c r="R117" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="28.8">
+    <row r="118" spans="1:18" ht="28.8">
       <c r="A118" s="1">
         <v>45744</v>
       </c>
@@ -18991,25 +19109,26 @@
       </c>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
-      <c r="L118" s="23"/>
-      <c r="M118" s="5" t="s">
+      <c r="J118" s="5"/>
+      <c r="M118" s="23"/>
+      <c r="N118" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="N118" s="1">
+      <c r="O118" s="1">
         <v>45748</v>
       </c>
-      <c r="O118" s="3">
+      <c r="P118" s="3">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="P118" s="7" t="s">
+      <c r="Q118" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q118" s="3" t="s">
+      <c r="R118" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:18">
       <c r="A119" s="1">
         <v>45744</v>
       </c>
@@ -19032,34 +19151,35 @@
       <c r="I119" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="5"/>
+      <c r="K119">
         <v>9360</v>
       </c>
-      <c r="K119">
+      <c r="L119">
         <v>24</v>
       </c>
-      <c r="L119" s="23">
-        <f>(G119-J119)/4000</f>
+      <c r="M119" s="23">
+        <f>(G119-K119)/4000</f>
         <v>-1.2137500000000001</v>
       </c>
-      <c r="M119" s="5" t="s">
+      <c r="N119" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="N119" s="1">
+      <c r="O119" s="1">
         <v>45748</v>
       </c>
-      <c r="O119" s="3">
+      <c r="P119" s="3">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="P119" s="7" t="s">
+      <c r="Q119" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q119" s="3" t="s">
+      <c r="R119" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:18">
       <c r="A120" s="1">
         <v>45744</v>
       </c>
@@ -19082,34 +19202,35 @@
       <c r="I120" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="5"/>
+      <c r="K120">
         <v>5400</v>
       </c>
-      <c r="K120">
+      <c r="L120">
         <v>131</v>
       </c>
-      <c r="L120" s="23">
-        <f>(G120-J120)/4000</f>
+      <c r="M120" s="23">
+        <f>(G120-K120)/4000</f>
         <v>3.1375000000000002</v>
       </c>
-      <c r="M120" s="5" t="s">
+      <c r="N120" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="N120" s="1">
+      <c r="O120" s="1">
         <v>45748</v>
       </c>
-      <c r="O120" s="3">
+      <c r="P120" s="3">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="P120" s="7" t="s">
+      <c r="Q120" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q120" s="3" t="s">
+      <c r="R120" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:18">
       <c r="A121" s="1">
         <v>45747</v>
       </c>
@@ -19125,25 +19246,26 @@
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
-      <c r="L121" s="23"/>
-      <c r="M121" s="5" t="s">
+      <c r="J121" s="5"/>
+      <c r="M121" s="23"/>
+      <c r="N121" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="N121" s="1">
+      <c r="O121" s="1">
         <v>45748</v>
       </c>
-      <c r="O121" s="3">
+      <c r="P121" s="3">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P121" s="7" t="s">
+      <c r="Q121" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q121" s="3" t="s">
+      <c r="R121" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="28.8">
+    <row r="122" spans="1:18" ht="28.8">
       <c r="A122" s="1">
         <v>45748</v>
       </c>
@@ -19166,45 +19288,46 @@
       <c r="I122" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="5"/>
+      <c r="K122">
         <v>6120</v>
       </c>
-      <c r="K122">
+      <c r="L122">
         <v>165</v>
       </c>
-      <c r="L122" s="23">
+      <c r="M122" s="23">
         <f t="shared" si="6"/>
         <v>5.1577500000000001</v>
       </c>
-      <c r="M122" s="5" t="s">
+      <c r="N122" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="P122" s="7" t="s">
+      <c r="Q122" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="15">
+    <row r="123" spans="1:18" ht="15">
       <c r="B123" s="5"/>
       <c r="C123" s="30"/>
       <c r="E123" s="5"/>
       <c r="H123" s="5"/>
     </row>
-    <row r="124" spans="1:17" ht="15">
+    <row r="124" spans="1:18" ht="15">
       <c r="B124" s="5"/>
       <c r="C124" s="30"/>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" spans="1:17" ht="15">
+    <row r="125" spans="1:18" ht="15">
       <c r="B125" s="5"/>
       <c r="C125" s="30"/>
       <c r="H125" s="5"/>
     </row>
-    <row r="126" spans="1:17" ht="15">
+    <row r="126" spans="1:18" ht="15">
       <c r="C126" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R87" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="P31 P32:Q42 P43 P44:Q53 P55:Q55 S111 P56:P122">
+  <autoFilter ref="A1:S87" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="Q31 Q32:R42 Q43 Q44:R53 Q55:R55 T111 Q56:Q122">
     <cfRule type="cellIs" dxfId="29" priority="61" operator="equal">
       <formula>"En attente"</formula>
     </cfRule>
@@ -19212,16 +19335,16 @@
       <formula>"OK"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="27" priority="63" operator="containsText" text="En cours*">
-      <formula>NOT(ISERROR(SEARCH("En cours*",P31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours*",Q31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="64" operator="containsText" text="$OK">
-      <formula>NOT(ISERROR(SEARCH("$OK",P31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("$OK",Q31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="65" operator="containsText" text="NOK">
-      <formula>NOT(ISERROR(SEARCH("NOK",P31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOK",Q31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P54">
+  <conditionalFormatting sqref="Q54">
     <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"En attente"</formula>
     </cfRule>
@@ -19229,16 +19352,16 @@
       <formula>"OK"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="28" operator="containsText" text="En cours*">
-      <formula>NOT(ISERROR(SEARCH("En cours*",P54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours*",Q54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="$OK">
-      <formula>NOT(ISERROR(SEARCH("$OK",P54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("$OK",Q54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="20" priority="30" operator="containsText" text="NOK">
-      <formula>NOT(ISERROR(SEARCH("NOK",P54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOK",Q54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:Q1">
+  <conditionalFormatting sqref="Q1:R1">
     <cfRule type="cellIs" dxfId="19" priority="56" operator="equal">
       <formula>" "</formula>
     </cfRule>
@@ -19255,7 +19378,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:Q30">
+  <conditionalFormatting sqref="Q1:R30">
     <cfRule type="cellIs" dxfId="14" priority="51" operator="equal">
       <formula>"En attente"</formula>
     </cfRule>
@@ -19263,16 +19386,16 @@
       <formula>"OK"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="53" operator="containsText" text="En cours*">
-      <formula>NOT(ISERROR(SEARCH("En cours*",P1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours*",Q1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="11" priority="54" operator="containsText" text="$OK">
-      <formula>NOT(ISERROR(SEARCH("$OK",P1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("$OK",Q1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="55" operator="containsText" text="NOK">
-      <formula>NOT(ISERROR(SEARCH("NOK",P1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOK",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:S1">
+  <conditionalFormatting sqref="S1:T1">
     <cfRule type="cellIs" dxfId="9" priority="41" operator="equal">
       <formula>"En attente"</formula>
     </cfRule>
@@ -19280,13 +19403,13 @@
       <formula>"OK"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="43" operator="containsText" text="En cours*">
-      <formula>NOT(ISERROR(SEARCH("En cours*",R1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours*",S1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="44" operator="containsText" text="$OK">
-      <formula>NOT(ISERROR(SEARCH("$OK",R1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("$OK",S1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="45" operator="containsText" text="NOK">
-      <formula>NOT(ISERROR(SEARCH("NOK",R1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOK",S1)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="46" operator="equal">
       <formula>" "</formula>
@@ -19308,7 +19431,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1:F94 E102 F96:F122" xr:uid="{3F620ED1-49DB-4726-9D30-47050A99B84A}">
       <formula1>"DEMANDE DE MA , DEPASSEMENT DE COUT"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="K12:K19 N19:N26 G20 J23:K25 G30:G32 J31:K32 K29 J34:K35 G35 H20:H32 K1:K10 L38 I24:I36 J27:J29 K27 G23:G28 L42:M42 L40:L41 M27:O27 N28:N65 L1:L36 M2:N16 O2:O26 M48:M49 A55:A57 L43:L65 M58:M64 O28:O79 H35:H36 I71 I22 I20:K20 G1:J19 G37:L37 H39:L39 G57:K65 G40:K55" xr:uid="{A4BB7EE5-1030-46B5-9087-D4B8D2969036}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L12:L19 O19:O26 G20 K23:L25 G30:G32 K31:L32 L29 K34:L35 G35 H20:H32 L1:L10 M38 I24:J36 K27:K29 L27 G23:G28 M42:N42 M40:M41 N27:P27 O28:O65 M1:M36 N2:O16 P2:P26 N48:N49 A55:A57 M43:M65 N58:N64 P28:P79 H35:H36 I71:J71 I22:J22 I20:L20 G1:K19 G37:M37 H39:M39 G57:L65 G40:L55" xr:uid="{A4BB7EE5-1030-46B5-9087-D4B8D2969036}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19319,8 +19442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270B7470-F5E2-4248-A9EA-1D345FD13D82}">
   <dimension ref="A2:H115"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="103" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView topLeftCell="A19" zoomScale="103" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
